--- a/public/tmp/pivotamont.xlsx
+++ b/public/tmp/pivotamont.xlsx
@@ -550,13 +550,13 @@
         <v>10</v>
       </c>
       <c r="B4" s="2">
-        <v>18790796.45</v>
+        <v>18802916.45</v>
       </c>
       <c r="C4" s="2">
-        <v>31407.9</v>
+        <v>43527.9</v>
       </c>
       <c r="D4" s="2">
-        <v>1270044.35</v>
+        <v>1271254.35</v>
       </c>
       <c r="E4" s="2">
         <v>6</v>
@@ -602,13 +602,13 @@
         <v>12</v>
       </c>
       <c r="B6" s="2">
-        <v>218947.34</v>
+        <v>330947.34</v>
       </c>
       <c r="C6" s="2">
-        <v>258751.23</v>
+        <v>379961.23</v>
       </c>
       <c r="D6" s="2">
-        <v>477698.57</v>
+        <v>489818.57</v>
       </c>
       <c r="E6" s="2">
         <v>23</v>
@@ -732,16 +732,16 @@
         <v>17</v>
       </c>
       <c r="B11" s="2">
-        <v>0.0</v>
+        <v>1212120.0</v>
       </c>
       <c r="C11" s="2">
-        <v>0.0</v>
+        <v>12121210.0</v>
       </c>
       <c r="D11" s="2">
-        <v>0.0</v>
+        <v>12121210.0</v>
       </c>
       <c r="E11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
